--- a/Documentation/Gantt Chart & Meeting Log.xlsx
+++ b/Documentation/Gantt Chart & Meeting Log.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="71" documentId="8_{C7711E48-3F71-4B5F-88BA-72987C000F3B}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="43" xr10:uidLastSave="{FA668586-8712-4665-B7E5-B0FF123E6F90}"/>
+  <xr:revisionPtr revIDLastSave="76" documentId="8_{C7711E48-3F71-4B5F-88BA-72987C000F3B}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="43" xr10:uidLastSave="{B8E286A5-FDD3-4436-83C4-0F8ECCE559E3}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="610" yWindow="1870" windowWidth="14400" windowHeight="7360" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ProjectSchedule" sheetId="11" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="83">
   <si>
     <t>Insert new rows ABOVE this one</t>
   </si>
@@ -323,6 +323,9 @@
   </si>
   <si>
     <t>Setting up repo, unity collab, begin project</t>
+  </si>
+  <si>
+    <t>Discussed what work each person would do and created backlogs</t>
   </si>
 </sst>
 </file>
@@ -1003,6 +1006,18 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="166" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="3" xfId="9">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="8">
       <alignment horizontal="right" indent="1"/>
     </xf>
@@ -1010,18 +1025,6 @@
       <alignment horizontal="right" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="3" xfId="9">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1645,117 +1648,117 @@
       <c r="B3" s="65" t="s">
         <v>24</v>
       </c>
-      <c r="C3" s="90" t="s">
+      <c r="C3" s="94" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="91"/>
-      <c r="E3" s="96">
+      <c r="D3" s="95"/>
+      <c r="E3" s="93">
         <v>43763</v>
       </c>
-      <c r="F3" s="96"/>
+      <c r="F3" s="93"/>
     </row>
     <row r="4" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="59" t="s">
         <v>34</v>
       </c>
-      <c r="C4" s="90" t="s">
+      <c r="C4" s="94" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="91"/>
+      <c r="D4" s="95"/>
       <c r="E4" s="7">
         <v>1</v>
       </c>
-      <c r="I4" s="93">
+      <c r="I4" s="90">
         <f>I5</f>
         <v>43759</v>
       </c>
-      <c r="J4" s="94"/>
-      <c r="K4" s="94"/>
-      <c r="L4" s="94"/>
-      <c r="M4" s="94"/>
-      <c r="N4" s="94"/>
-      <c r="O4" s="95"/>
-      <c r="P4" s="93">
+      <c r="J4" s="91"/>
+      <c r="K4" s="91"/>
+      <c r="L4" s="91"/>
+      <c r="M4" s="91"/>
+      <c r="N4" s="91"/>
+      <c r="O4" s="92"/>
+      <c r="P4" s="90">
         <f>P5</f>
         <v>43766</v>
       </c>
-      <c r="Q4" s="94"/>
-      <c r="R4" s="94"/>
-      <c r="S4" s="94"/>
-      <c r="T4" s="94"/>
-      <c r="U4" s="94"/>
-      <c r="V4" s="95"/>
-      <c r="W4" s="93">
+      <c r="Q4" s="91"/>
+      <c r="R4" s="91"/>
+      <c r="S4" s="91"/>
+      <c r="T4" s="91"/>
+      <c r="U4" s="91"/>
+      <c r="V4" s="92"/>
+      <c r="W4" s="90">
         <f>W5</f>
         <v>43773</v>
       </c>
-      <c r="X4" s="94"/>
-      <c r="Y4" s="94"/>
-      <c r="Z4" s="94"/>
-      <c r="AA4" s="94"/>
-      <c r="AB4" s="94"/>
-      <c r="AC4" s="95"/>
-      <c r="AD4" s="93">
+      <c r="X4" s="91"/>
+      <c r="Y4" s="91"/>
+      <c r="Z4" s="91"/>
+      <c r="AA4" s="91"/>
+      <c r="AB4" s="91"/>
+      <c r="AC4" s="92"/>
+      <c r="AD4" s="90">
         <f>AD5</f>
         <v>43780</v>
       </c>
-      <c r="AE4" s="94"/>
-      <c r="AF4" s="94"/>
-      <c r="AG4" s="94"/>
-      <c r="AH4" s="94"/>
-      <c r="AI4" s="94"/>
-      <c r="AJ4" s="95"/>
-      <c r="AK4" s="93">
+      <c r="AE4" s="91"/>
+      <c r="AF4" s="91"/>
+      <c r="AG4" s="91"/>
+      <c r="AH4" s="91"/>
+      <c r="AI4" s="91"/>
+      <c r="AJ4" s="92"/>
+      <c r="AK4" s="90">
         <f>AK5</f>
         <v>43787</v>
       </c>
-      <c r="AL4" s="94"/>
-      <c r="AM4" s="94"/>
-      <c r="AN4" s="94"/>
-      <c r="AO4" s="94"/>
-      <c r="AP4" s="94"/>
-      <c r="AQ4" s="95"/>
-      <c r="AR4" s="93">
+      <c r="AL4" s="91"/>
+      <c r="AM4" s="91"/>
+      <c r="AN4" s="91"/>
+      <c r="AO4" s="91"/>
+      <c r="AP4" s="91"/>
+      <c r="AQ4" s="92"/>
+      <c r="AR4" s="90">
         <f>AR5</f>
         <v>43794</v>
       </c>
-      <c r="AS4" s="94"/>
-      <c r="AT4" s="94"/>
-      <c r="AU4" s="94"/>
-      <c r="AV4" s="94"/>
-      <c r="AW4" s="94"/>
-      <c r="AX4" s="95"/>
-      <c r="AY4" s="93">
+      <c r="AS4" s="91"/>
+      <c r="AT4" s="91"/>
+      <c r="AU4" s="91"/>
+      <c r="AV4" s="91"/>
+      <c r="AW4" s="91"/>
+      <c r="AX4" s="92"/>
+      <c r="AY4" s="90">
         <f>AY5</f>
         <v>43801</v>
       </c>
-      <c r="AZ4" s="94"/>
-      <c r="BA4" s="94"/>
-      <c r="BB4" s="94"/>
-      <c r="BC4" s="94"/>
-      <c r="BD4" s="94"/>
-      <c r="BE4" s="95"/>
-      <c r="BF4" s="93">
+      <c r="AZ4" s="91"/>
+      <c r="BA4" s="91"/>
+      <c r="BB4" s="91"/>
+      <c r="BC4" s="91"/>
+      <c r="BD4" s="91"/>
+      <c r="BE4" s="92"/>
+      <c r="BF4" s="90">
         <f>BF5</f>
         <v>43808</v>
       </c>
-      <c r="BG4" s="94"/>
-      <c r="BH4" s="94"/>
-      <c r="BI4" s="94"/>
-      <c r="BJ4" s="94"/>
-      <c r="BK4" s="94"/>
-      <c r="BL4" s="95"/>
+      <c r="BG4" s="91"/>
+      <c r="BH4" s="91"/>
+      <c r="BI4" s="91"/>
+      <c r="BJ4" s="91"/>
+      <c r="BK4" s="91"/>
+      <c r="BL4" s="92"/>
     </row>
     <row r="5" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="59" t="s">
         <v>35</v>
       </c>
-      <c r="B5" s="92"/>
-      <c r="C5" s="92"/>
-      <c r="D5" s="92"/>
-      <c r="E5" s="92"/>
-      <c r="F5" s="92"/>
-      <c r="G5" s="92"/>
+      <c r="B5" s="96"/>
+      <c r="C5" s="96"/>
+      <c r="D5" s="96"/>
+      <c r="E5" s="96"/>
+      <c r="F5" s="96"/>
+      <c r="G5" s="96"/>
       <c r="I5" s="11">
         <f>Project_Start-WEEKDAY(Project_Start,1)+2+7*(Display_Week-1)</f>
         <v>43759</v>
@@ -4829,6 +4832,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="AK4:AQ4"/>
+    <mergeCell ref="AR4:AX4"/>
     <mergeCell ref="AY4:BE4"/>
     <mergeCell ref="BF4:BL4"/>
     <mergeCell ref="E3:F3"/>
@@ -4836,11 +4844,6 @@
     <mergeCell ref="P4:V4"/>
     <mergeCell ref="W4:AC4"/>
     <mergeCell ref="AD4:AJ4"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="B5:G5"/>
-    <mergeCell ref="AK4:AQ4"/>
-    <mergeCell ref="AR4:AX4"/>
   </mergeCells>
   <conditionalFormatting sqref="D7:D41">
     <cfRule type="dataBar" priority="14">
@@ -4913,7 +4916,7 @@
   <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4921,7 +4924,7 @@
     <col min="1" max="1" width="14.7265625" customWidth="1"/>
     <col min="2" max="2" width="19.453125" customWidth="1"/>
     <col min="3" max="3" width="24.6328125" customWidth="1"/>
-    <col min="4" max="4" width="36.6328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="56.08984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
@@ -5020,10 +5023,18 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A8" s="88"/>
-      <c r="B8" s="88"/>
-      <c r="C8" s="88"/>
-      <c r="D8" s="88"/>
+      <c r="A8" s="87">
+        <v>43769</v>
+      </c>
+      <c r="B8" s="88" t="s">
+        <v>73</v>
+      </c>
+      <c r="C8" s="88" t="s">
+        <v>74</v>
+      </c>
+      <c r="D8" s="88" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" s="88"/>
